--- a/biology/Zoologie/Atractus_microrhynchus/Atractus_microrhynchus.xlsx
+++ b/biology/Zoologie/Atractus_microrhynchus/Atractus_microrhynchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus microrhynchus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus microrhynchus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
